--- a/experiment_1/half-wave/vpp_varying-resistor.xlsx
+++ b/experiment_1/half-wave/vpp_varying-resistor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\programming\UNI\PHY321\experiment_1\half-wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D6D57F-4A10-49EB-9526-188CFE6872F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09DB6B9-A0EC-4A03-96BA-EBEE1469CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FBBBA9F1-8E80-44C9-9614-674AF72DEB89}"/>
   </bookViews>
@@ -34,24 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Resistors (Ohms)</t>
   </si>
   <si>
-    <t>$V_{pp}$ Reading 1</t>
+    <t>Reading 1</t>
   </si>
   <si>
-    <t>$V_{pp}$ Reading 2</t>
+    <t>Reading 2</t>
   </si>
   <si>
-    <t>$V_{pp}$Reading 3</t>
+    <t>Reading 3</t>
   </si>
   <si>
-    <t>$V_{pp}$ Reading 4</t>
+    <t>Reading 4</t>
   </si>
   <si>
-    <t>$V_{pp}$ Reading 5</t>
+    <t>Reading 5</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -95,13 +98,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5CC91E-0CDB-4B37-8300-68A82A1BD815}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,165 +443,202 @@
     <col min="5" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2">
+        <v>470</v>
+      </c>
+      <c r="D1" s="2">
+        <v>560</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5600</v>
+      </c>
+      <c r="H1" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3">
+        <v>7.76</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7.76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7.84</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7.84</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B6" s="3">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>470</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C6" s="3">
         <v>3.36</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.38</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.36</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>560</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D6" s="3">
         <v>3.06</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E6" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>AVERAGE(B2:B6)</f>
+        <v>7.8239999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:H7" si="0">AVERAGE(C2:C6)</f>
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2200</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>1.54</v>
       </c>
-      <c r="D6" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5600</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1320000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_1/half-wave/vpp_varying-resistor.xlsx
+++ b/experiment_1/half-wave/vpp_varying-resistor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\programming\UNI\PHY321\experiment_1\half-wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09DB6B9-A0EC-4A03-96BA-EBEE1469CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D0E5A-6883-4FFF-9077-A079623956F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FBBBA9F1-8E80-44C9-9614-674AF72DEB89}"/>
   </bookViews>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -108,9 +108,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -432,7 +429,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,198 +444,192 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>100</v>
-      </c>
-      <c r="C1" s="2">
-        <v>470</v>
-      </c>
-      <c r="D1" s="2">
-        <v>560</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2200</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5600</v>
-      </c>
-      <c r="H1" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>7.8</v>
       </c>
       <c r="C2" s="3">
+        <v>7.76</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.82</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>470</v>
+      </c>
+      <c r="B3" s="3">
         <v>3.36</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.06</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7.76</v>
       </c>
       <c r="C3" s="3">
         <v>3.4</v>
       </c>
       <c r="D3" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>560</v>
+      </c>
+      <c r="B4" s="3">
         <v>3.06</v>
       </c>
-      <c r="E3" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7.84</v>
-      </c>
       <c r="C4" s="3">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="D4" s="3">
         <v>3.14</v>
       </c>
       <c r="E4" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="D5" s="3">
         <v>2.08</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>7.84</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.36</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.04</v>
       </c>
       <c r="E5" s="3">
         <v>2.1</v>
       </c>
       <c r="F5" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2200</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="E6" s="3">
         <v>1.56</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7.88</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.36</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.06</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.12</v>
       </c>
       <c r="F6" s="3">
         <v>1.54</v>
       </c>
       <c r="G6" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F7" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G7" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <f>AVERAGE(B2:B6)</f>
-        <v>7.8239999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:H7" si="0">AVERAGE(C2:C6)</f>
-        <v>3.3719999999999999</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0720000000000001</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1320000000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="G8" s="3">
+        <v>0.92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
